--- a/week9/changes.xlsx
+++ b/week9/changes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="362">
   <si>
     <t>Year</t>
   </si>
@@ -124,6 +124,9 @@
     <t>CHN</t>
   </si>
   <si>
+    <t>CIV</t>
+  </si>
+  <si>
     <t>CMR</t>
   </si>
   <si>
@@ -292,9 +295,15 @@
     <t>KIR</t>
   </si>
   <si>
+    <t>KOR</t>
+  </si>
+  <si>
     <t>KWT</t>
   </si>
   <si>
+    <t>LAO</t>
+  </si>
+  <si>
     <t>LBN</t>
   </si>
   <si>
@@ -304,6 +313,9 @@
     <t>LBY</t>
   </si>
   <si>
+    <t>LCA</t>
+  </si>
+  <si>
     <t>LKA</t>
   </si>
   <si>
@@ -370,6 +382,12 @@
     <t>NAM</t>
   </si>
   <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
     <t>NIC</t>
   </si>
   <si>
@@ -520,6 +538,9 @@
     <t>UZB</t>
   </si>
   <si>
+    <t>VCT</t>
+  </si>
+  <si>
     <t>VEN</t>
   </si>
   <si>
@@ -637,6 +658,9 @@
     <t>China 🇨🇳</t>
   </si>
   <si>
+    <t>Côte d'Ivoire 🇨🇮</t>
+  </si>
+  <si>
     <t>Cameroon 🇨🇲</t>
   </si>
   <si>
@@ -802,9 +826,15 @@
     <t>Kiribati 🇰🇮</t>
   </si>
   <si>
+    <t>Korea, Republic of 🇰🇷</t>
+  </si>
+  <si>
     <t>Kuwait 🇰🇼</t>
   </si>
   <si>
+    <t>Lao People's Democratic Republic 🇱🇦</t>
+  </si>
+  <si>
     <t>Lebanon 🇱🇧</t>
   </si>
   <si>
@@ -814,6 +844,9 @@
     <t>Libya 🇱🇾</t>
   </si>
   <si>
+    <t>Saint Lucia 🇱🇨</t>
+  </si>
+  <si>
     <t>Sri Lanka 🇱🇰</t>
   </si>
   <si>
@@ -880,6 +913,12 @@
     <t>Namibia 🇳🇦</t>
   </si>
   <si>
+    <t>Niger 🇳🇪</t>
+  </si>
+  <si>
+    <t>Nigeria 🇳🇬</t>
+  </si>
+  <si>
     <t>Nicaragua 🇳🇮</t>
   </si>
   <si>
@@ -1022,6 +1061,9 @@
   </si>
   <si>
     <t>Uzbekistan 🇺🇿</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines 🇻🇨</t>
   </si>
   <si>
     <t>Venezuela, Bolivarian Republic of 🇻🇪</t>
@@ -1415,7 +1457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E175"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1462,7 +1504,7 @@
         <v>638</v>
       </c>
       <c r="E4" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1476,10 +1518,10 @@
         <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1493,10 +1535,10 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1510,10 +1552,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1527,10 +1569,10 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1544,10 +1586,10 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1561,10 +1603,10 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1578,10 +1620,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1595,10 +1637,10 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1612,10 +1654,10 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1629,10 +1671,10 @@
         <v>548</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1646,10 +1688,10 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1663,10 +1705,10 @@
         <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1680,10 +1722,10 @@
         <v>320</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1697,10 +1739,10 @@
         <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1714,10 +1756,10 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1731,10 +1773,10 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1748,10 +1790,10 @@
         <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1765,10 +1807,10 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1782,10 +1824,10 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1799,10 +1841,10 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1816,10 +1858,10 @@
         <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1833,10 +1875,10 @@
         <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1850,10 +1892,10 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1867,10 +1909,10 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1884,10 +1926,10 @@
         <v>183</v>
       </c>
       <c r="D29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1901,10 +1943,10 @@
         <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1918,10 +1960,10 @@
         <v>829</v>
       </c>
       <c r="D31" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1935,10 +1977,10 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1952,10 +1994,10 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1969,10 +2011,10 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1986,10 +2028,10 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1997,16 +2039,16 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>886</v>
+        <v>704</v>
       </c>
       <c r="C36">
-        <v>529</v>
+        <v>617</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2014,16 +2056,16 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>760</v>
+        <v>886</v>
       </c>
       <c r="C37">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2031,16 +2073,16 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>739</v>
+        <v>760</v>
       </c>
       <c r="C38">
-        <v>378</v>
+        <v>473</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2048,16 +2090,16 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>94</v>
+        <v>739</v>
       </c>
       <c r="C39">
-        <v>83</v>
+        <v>378</v>
       </c>
       <c r="D39" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2065,16 +2107,16 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>444</v>
+        <v>94</v>
       </c>
       <c r="C40">
-        <v>273</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2082,16 +2124,16 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>118</v>
+        <v>444</v>
       </c>
       <c r="C41">
-        <v>58</v>
+        <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2099,16 +2141,16 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2116,16 +2158,16 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2133,16 +2175,16 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2153,41 +2195,41 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
       <c r="C46">
-        <v>248</v>
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>224</v>
       </c>
       <c r="E46" t="s">
-        <v>345</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
-        <v>8</v>
-      </c>
       <c r="C47">
-        <v>4</v>
-      </c>
-      <c r="D47" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2195,16 +2237,16 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E48" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2212,16 +2254,16 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="C49">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E49" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2229,16 +2271,16 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C50">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E50" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2246,16 +2288,16 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="C51">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E51" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2263,10 +2305,16 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1280</v>
+        <v>64</v>
+      </c>
+      <c r="C52">
+        <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>229</v>
+      </c>
+      <c r="E52" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2274,16 +2322,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>5</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
+        <v>1280</v>
       </c>
       <c r="D53" t="s">
-        <v>223</v>
-      </c>
-      <c r="E53" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2291,16 +2333,16 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E54" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2308,16 +2350,16 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>1030</v>
+        <v>29</v>
       </c>
       <c r="C55">
-        <v>401</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E55" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2325,16 +2367,16 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>1030</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>401</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2342,16 +2384,16 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2359,16 +2401,16 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E58" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2376,16 +2418,16 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E59" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2393,16 +2435,16 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>380</v>
+        <v>154</v>
       </c>
       <c r="C60">
-        <v>252</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E60" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2410,16 +2452,16 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>252</v>
       </c>
       <c r="D61" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E61" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2427,16 +2469,16 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E62" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2444,16 +2486,16 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>484</v>
+        <v>31</v>
       </c>
       <c r="C63">
-        <v>308</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E63" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2461,16 +2503,16 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>1020</v>
+        <v>484</v>
       </c>
       <c r="C64">
-        <v>576</v>
+        <v>308</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E64" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2478,16 +2520,16 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>932</v>
+        <v>1020</v>
       </c>
       <c r="C65">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="E65" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2495,16 +2537,16 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>1210</v>
+        <v>932</v>
       </c>
       <c r="C66">
-        <v>667</v>
+        <v>597</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E66" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2512,16 +2554,16 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>454</v>
+        <v>1210</v>
       </c>
       <c r="C67">
-        <v>301</v>
+        <v>667</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E67" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2529,16 +2571,16 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>301</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E68" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2546,16 +2588,16 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E69" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2563,16 +2605,16 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="C70">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E70" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2580,16 +2622,16 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="C71">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E71" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2597,16 +2639,16 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="C72">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E72" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2614,16 +2656,16 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D73" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E73" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2631,16 +2673,16 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>437</v>
+        <v>11</v>
       </c>
       <c r="C74">
-        <v>480</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E74" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2648,16 +2690,16 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>437</v>
       </c>
       <c r="C75">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="D75" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E75" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2665,16 +2707,16 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E76" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2682,16 +2724,16 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="C77">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="D77" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E77" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2699,16 +2741,16 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="D78" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E78" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2716,16 +2758,16 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C79">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E79" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2733,16 +2775,16 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C80">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E80" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2750,16 +2792,16 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E81" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2767,16 +2809,16 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E82" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2784,16 +2826,16 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E83" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2801,16 +2843,16 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E84" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2818,16 +2860,16 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C85">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D85" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E85" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2835,16 +2877,16 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D86" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E86" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2852,16 +2894,16 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E87" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2869,16 +2911,16 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>708</v>
+        <v>61</v>
       </c>
       <c r="C88">
-        <v>342</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E88" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2886,16 +2928,16 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>79</v>
+        <v>708</v>
       </c>
       <c r="C89">
-        <v>60</v>
+        <v>342</v>
       </c>
       <c r="D89" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E89" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2903,16 +2945,16 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="C90">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="D90" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E90" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2920,16 +2962,16 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>136</v>
+        <v>488</v>
       </c>
       <c r="C91">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="D91" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E91" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2937,16 +2979,16 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="C92">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D92" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E92" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2954,16 +2996,16 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C93">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E93" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2971,16 +3013,16 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>894</v>
+        <v>10</v>
       </c>
       <c r="C94">
-        <v>661</v>
+        <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E94" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2988,16 +3030,16 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>70</v>
+        <v>544</v>
       </c>
       <c r="C95">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="D95" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E95" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3005,16 +3047,16 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C96">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E96" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3022,16 +3064,16 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>614</v>
+        <v>894</v>
       </c>
       <c r="C97">
-        <v>544</v>
+        <v>661</v>
       </c>
       <c r="D97" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E97" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3039,16 +3081,16 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C98">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="D98" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E98" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3056,16 +3098,16 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="D99" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3073,16 +3115,16 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C100">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D100" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E100" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3090,16 +3132,16 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>188</v>
+        <v>614</v>
       </c>
       <c r="C101">
-        <v>70</v>
+        <v>544</v>
       </c>
       <c r="D101" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E101" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3107,16 +3149,16 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C102">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E102" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3124,16 +3166,16 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>559</v>
+        <v>10</v>
       </c>
       <c r="C103">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E103" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3141,16 +3183,16 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="C104">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D104" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E104" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3158,16 +3200,16 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="C105">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D105" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E105" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3175,16 +3217,16 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C106">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D106" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E106" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3192,16 +3234,16 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>836</v>
+        <v>559</v>
       </c>
       <c r="C107">
-        <v>562</v>
+        <v>335</v>
       </c>
       <c r="D107" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E107" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3209,16 +3251,16 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D108" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E108" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3226,16 +3268,16 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>340</v>
+        <v>55</v>
       </c>
       <c r="C109">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E109" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3243,16 +3285,16 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E110" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3260,16 +3302,16 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>155</v>
+        <v>836</v>
       </c>
       <c r="C111">
-        <v>45</v>
+        <v>562</v>
       </c>
       <c r="D111" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E111" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3277,16 +3319,16 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>798</v>
+        <v>9</v>
       </c>
       <c r="C112">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
         <v>289</v>
       </c>
-      <c r="D112" t="s">
-        <v>282</v>
-      </c>
       <c r="E112" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3294,16 +3336,16 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>834</v>
+        <v>340</v>
       </c>
       <c r="C113">
-        <v>766</v>
+        <v>250</v>
       </c>
       <c r="D113" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E113" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3311,16 +3353,16 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C114">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E114" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3328,16 +3370,16 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>749</v>
+        <v>155</v>
       </c>
       <c r="C115">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="D115" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E115" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3345,16 +3387,16 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>38</v>
+        <v>798</v>
       </c>
       <c r="C116">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="D116" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E116" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3362,16 +3404,16 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>348</v>
+        <v>834</v>
       </c>
       <c r="C117">
-        <v>195</v>
+        <v>766</v>
       </c>
       <c r="D117" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E117" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3379,16 +3421,16 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="C118">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D118" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E118" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3396,16 +3438,16 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>13</v>
+        <v>749</v>
       </c>
       <c r="C119">
-        <v>5</v>
+        <v>349</v>
       </c>
       <c r="D119" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E119" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3413,16 +3455,16 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E120" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3430,16 +3472,16 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>553</v>
+        <v>348</v>
       </c>
       <c r="C121">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D121" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E121" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3447,16 +3489,16 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>813</v>
       </c>
       <c r="C122">
-        <v>9</v>
+        <v>509</v>
       </c>
       <c r="D122" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E122" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3464,16 +3506,16 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="C123">
-        <v>19</v>
+        <v>917</v>
       </c>
       <c r="D123" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E123" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3481,16 +3523,16 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>286</v>
+        <v>162</v>
       </c>
       <c r="C124">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D124" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E124" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3498,16 +3540,16 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D125" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="E125" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3515,16 +3557,16 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="C126">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E126" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3532,16 +3574,16 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>160</v>
+        <v>553</v>
       </c>
       <c r="C127">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="D127" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E127" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3549,16 +3591,16 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="C128">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E128" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3566,16 +3608,16 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D129" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E129" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3583,16 +3625,16 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>10</v>
+        <v>286</v>
       </c>
       <c r="C130">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="D130" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E130" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3600,16 +3642,16 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="C131">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D131" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E131" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3617,16 +3659,16 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="C132">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D132" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E132" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3634,16 +3676,16 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="C133">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="D133" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E133" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3651,16 +3693,16 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>56</v>
+        <v>249</v>
       </c>
       <c r="C134">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D134" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E134" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3668,16 +3710,16 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>1160</v>
+        <v>7</v>
       </c>
       <c r="C135">
-        <v>248</v>
+        <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E135" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3685,16 +3727,16 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C136">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E136" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3702,16 +3744,16 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>667</v>
+        <v>165</v>
       </c>
       <c r="C137">
-        <v>295</v>
+        <v>84</v>
       </c>
       <c r="D137" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E137" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3719,16 +3761,16 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>553</v>
+        <v>14</v>
       </c>
       <c r="C138">
+        <v>9</v>
+      </c>
+      <c r="D138" t="s">
         <v>315</v>
       </c>
-      <c r="D138" t="s">
-        <v>308</v>
-      </c>
       <c r="E138" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3736,16 +3778,16 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C139">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D139" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E139" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3753,16 +3795,16 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>245</v>
+        <v>56</v>
       </c>
       <c r="C140">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="D140" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E140" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3770,16 +3812,16 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>2480</v>
+        <v>1160</v>
       </c>
       <c r="C141">
-        <v>1120</v>
+        <v>248</v>
       </c>
       <c r="D141" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E141" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3787,27 +3829,33 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C142">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D142" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E142" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="B143">
+        <v>667</v>
+      </c>
       <c r="C143">
-        <v>829</v>
+        <v>295</v>
+      </c>
+      <c r="D143" t="s">
+        <v>320</v>
       </c>
       <c r="E143" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3815,21 +3863,33 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>13</v>
+        <v>553</v>
+      </c>
+      <c r="C144">
+        <v>315</v>
       </c>
       <c r="D144" t="s">
-        <v>313</v>
+        <v>321</v>
+      </c>
+      <c r="E144" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="B145">
+        <v>13</v>
+      </c>
       <c r="C145">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>322</v>
       </c>
       <c r="E145" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3837,16 +3897,16 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="C146">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D146" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="E146" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3854,16 +3914,16 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>8</v>
+        <v>2480</v>
       </c>
       <c r="C147">
-        <v>5</v>
+        <v>1120</v>
       </c>
       <c r="D147" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E147" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3871,33 +3931,27 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C148">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D148" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="E148" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B149">
-        <v>5</v>
-      </c>
       <c r="C149">
-        <v>4</v>
-      </c>
-      <c r="D149" t="s">
-        <v>317</v>
+        <v>829</v>
       </c>
       <c r="E149" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3905,33 +3959,27 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>521</v>
+        <v>13</v>
       </c>
       <c r="C150">
-        <v>437</v>
+        <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E150" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B151">
-        <v>53</v>
-      </c>
       <c r="C151">
-        <v>53</v>
-      </c>
-      <c r="D151" t="s">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="E151" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3939,16 +3987,16 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>1420</v>
+        <v>221</v>
       </c>
       <c r="C152">
-        <v>1140</v>
+        <v>120</v>
       </c>
       <c r="D152" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E152" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3956,16 +4004,16 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>489</v>
+        <v>8</v>
       </c>
       <c r="C153">
-        <v>396</v>
+        <v>5</v>
       </c>
       <c r="D153" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E153" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3973,16 +4021,16 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C154">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E154" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3990,16 +4038,16 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C155">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E155" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4007,16 +4055,16 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>29</v>
+        <v>521</v>
       </c>
       <c r="C156">
-        <v>7</v>
+        <v>437</v>
       </c>
       <c r="D156" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E156" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4024,16 +4072,16 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>745</v>
+        <v>53</v>
       </c>
       <c r="C157">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="D157" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E157" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4041,16 +4089,16 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>77</v>
+        <v>1420</v>
       </c>
       <c r="C158">
-        <v>52</v>
+        <v>1140</v>
       </c>
       <c r="D158" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E158" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4058,16 +4106,16 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>81</v>
+        <v>489</v>
       </c>
       <c r="C159">
-        <v>67</v>
+        <v>396</v>
       </c>
       <c r="D159" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E159" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4075,16 +4123,16 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C160">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D160" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E160" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4092,16 +4140,16 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C161">
         <v>17</v>
       </c>
       <c r="D161" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E161" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4109,16 +4157,16 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>854</v>
+        <v>29</v>
       </c>
       <c r="C162">
-        <v>524</v>
+        <v>7</v>
       </c>
       <c r="D162" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E162" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4126,16 +4174,16 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>578</v>
+        <v>745</v>
       </c>
       <c r="C163">
-        <v>375</v>
+        <v>142</v>
       </c>
       <c r="D163" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E163" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4143,16 +4191,16 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C164">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D164" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E164" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4160,16 +4208,16 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="C165">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D165" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E165" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4177,16 +4225,16 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C166">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D166" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E166" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4194,16 +4242,16 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C167">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D167" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E167" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4211,10 +4259,16 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>119</v>
+        <v>854</v>
+      </c>
+      <c r="C168">
+        <v>524</v>
       </c>
       <c r="D168" t="s">
-        <v>336</v>
+        <v>343</v>
+      </c>
+      <c r="E168" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4222,16 +4276,16 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>68</v>
+        <v>578</v>
       </c>
       <c r="C169">
-        <v>43</v>
+        <v>375</v>
       </c>
       <c r="D169" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4239,16 +4293,16 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="C170">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D170" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E170" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4256,16 +4310,16 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="C171">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D171" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4273,10 +4327,16 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>301</v>
+        <v>12</v>
+      </c>
+      <c r="C172">
+        <v>19</v>
       </c>
       <c r="D172" t="s">
-        <v>340</v>
+        <v>347</v>
+      </c>
+      <c r="E172" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4284,16 +4344,16 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="C173">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="D173" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4301,16 +4361,16 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>528</v>
+        <v>80</v>
       </c>
       <c r="C174">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="D174" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="E174" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4318,16 +4378,123 @@
         <v>175</v>
       </c>
       <c r="B175">
+        <v>119</v>
+      </c>
+      <c r="D175" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>68</v>
+      </c>
+      <c r="C176">
+        <v>43</v>
+      </c>
+      <c r="D176" t="s">
+        <v>351</v>
+      </c>
+      <c r="E176" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>140</v>
+      </c>
+      <c r="C177">
+        <v>72</v>
+      </c>
+      <c r="D177" t="s">
+        <v>352</v>
+      </c>
+      <c r="E177" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>88</v>
+      </c>
+      <c r="C178">
+        <v>43</v>
+      </c>
+      <c r="D178" t="s">
+        <v>353</v>
+      </c>
+      <c r="E178" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>301</v>
+      </c>
+      <c r="D179" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>160</v>
+      </c>
+      <c r="C180">
+        <v>119</v>
+      </c>
+      <c r="D180" t="s">
+        <v>355</v>
+      </c>
+      <c r="E180" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>528</v>
+      </c>
+      <c r="C181">
+        <v>213</v>
+      </c>
+      <c r="D181" t="s">
+        <v>356</v>
+      </c>
+      <c r="E181" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
         <v>579</v>
       </c>
-      <c r="C175">
+      <c r="C182">
         <v>458</v>
       </c>
-      <c r="D175" t="s">
-        <v>343</v>
-      </c>
-      <c r="E175" t="s">
-        <v>343</v>
+      <c r="D182" t="s">
+        <v>357</v>
+      </c>
+      <c r="E182" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
